--- a/assets/img/WWDT/experimental_data.xlsx
+++ b/assets/img/WWDT/experimental_data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothyweng/TimothyWeng.github.io/assets/img/WWDT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BB5C6B-FAAA-AE44-BEA1-F5348E72C242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059603D0-9101-044D-943D-56287EC2B451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre" sheetId="8" r:id="rId1"/>
+    <sheet name="Main" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>TBT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +40,10 @@
   </si>
   <si>
     <t>CTL-slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,10 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -309,7 +315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70F8833-2086-EC43-A781-C2149A5C4BB7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+    <sheetView zoomScale="173" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -360,4 +366,144 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ED18EB-C0AA-4C4A-AD24-3AA013855D89}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>263</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3">
+        <v>275</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4">
+        <v>310</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5">
+        <v>315</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6">
+        <v>360</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7">
+        <v>372</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>187</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.20649999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9">
+        <v>190</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10">
+        <v>268</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11">
+        <v>273</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12">
+        <v>320</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.22699999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13">
+        <v>328</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/img/WWDT/experimental_data.xlsx
+++ b/assets/img/WWDT/experimental_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothyweng/TimothyWeng.github.io/assets/img/WWDT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059603D0-9101-044D-943D-56287EC2B451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CB57DF-17B8-1F42-B69D-D33357E02C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,7 +316,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B3" sqref="B3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -373,7 +373,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -427,19 +427,19 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="C6" s="2">
-        <v>0.23</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="C7" s="2">
-        <v>0.23200000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -456,46 +456,46 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="C9" s="2">
-        <v>0.20499999999999999</v>
+        <v>0.2152</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C10" s="2">
-        <v>0.215</v>
+        <v>0.2162</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="C11" s="2">
-        <v>0.21299999999999999</v>
+        <v>0.20649999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="C12" s="2">
-        <v>0.22699999999999998</v>
+        <v>0.2152</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13">
-        <v>328</v>
+        <v>263</v>
       </c>
       <c r="C13" s="2">
-        <v>0.22500000000000001</v>
+        <v>0.2162</v>
       </c>
     </row>
   </sheetData>

--- a/assets/img/WWDT/experimental_data.xlsx
+++ b/assets/img/WWDT/experimental_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothyweng/TimothyWeng.github.io/assets/img/WWDT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CB57DF-17B8-1F42-B69D-D33357E02C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0824E1-428C-804B-A48F-682FCB79B00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>TBT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,15 +36,29 @@
   </si>
   <si>
     <t>CTL-fast</t>
+  </si>
+  <si>
+    <t>CTL-fast</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTL-slow</t>
   </si>
   <si>
     <t>CTL-slow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CTL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>WWDT-slow</t>
+  </si>
+  <si>
+    <t>WWDT-mid</t>
+  </si>
+  <si>
+    <t>WWDT-fast</t>
+  </si>
+  <si>
+    <t>CTL-mid</t>
   </si>
 </sst>
 </file>
@@ -97,7 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -316,7 +330,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C4"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -342,7 +356,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>187</v>
@@ -353,7 +367,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>269</v>
@@ -370,15 +384,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ED18EB-C0AA-4C4A-AD24-3AA013855D89}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E2" sqref="E2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -386,123 +400,151 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>263</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.21299999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3">
-        <v>275</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4">
-        <v>310</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5">
-        <v>315</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6">
-        <v>310</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7">
-        <v>315</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>253</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.21759999999999999</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>249</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>257</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.22020000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>267</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.21990000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>369</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>337</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.22570000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>217</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.21390000000000001</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>219</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>235</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.21490000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>229</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.21510000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>187</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.20649999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9">
-        <v>269</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.2152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10">
-        <v>263</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.2162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11">
-        <v>187</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.20649999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12">
-        <v>269</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.2152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13">
-        <v>263</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.2162</v>
+      <c r="B12" s="1">
+        <v>339</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.2273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>309</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.2238</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/img/WWDT/experimental_data.xlsx
+++ b/assets/img/WWDT/experimental_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothyweng/TimothyWeng.github.io/assets/img/WWDT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0824E1-428C-804B-A48F-682FCB79B00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075026C0-2122-0643-9A21-0F42E91AD613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>TBT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,11 +107,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -387,7 +390,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H16"/>
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -401,7 +404,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1">
@@ -415,9 +418,7 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="1">
         <v>249</v>
       </c>
@@ -429,7 +430,7 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1">
@@ -440,9 +441,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="1">
         <v>267</v>
       </c>
@@ -451,7 +450,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
@@ -462,9 +461,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>337</v>
       </c>
@@ -473,7 +470,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1">
@@ -487,9 +484,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="1">
         <v>219</v>
       </c>
@@ -501,7 +496,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
@@ -512,9 +507,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>229</v>
       </c>
@@ -523,7 +516,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1">
@@ -534,9 +527,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="1">
         <v>309</v>
       </c>
@@ -545,6 +536,14 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/img/WWDT/experimental_data.xlsx
+++ b/assets/img/WWDT/experimental_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothyweng/TimothyWeng.github.io/assets/img/WWDT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075026C0-2122-0643-9A21-0F42E91AD613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C51C7F1-6B07-5F4A-9411-6ACE33D4FACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre" sheetId="8" r:id="rId1"/>
@@ -107,10 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,8 +331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70F8833-2086-EC43-A781-C2149A5C4BB7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -354,7 +353,7 @@
         <v>263</v>
       </c>
       <c r="C2" s="2">
-        <v>0.21299999999999999</v>
+        <v>0.21296300000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -365,7 +364,7 @@
         <v>187</v>
       </c>
       <c r="C3" s="2">
-        <v>0.20649999999999999</v>
+        <v>0.20647199999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -376,12 +375,13 @@
         <v>269</v>
       </c>
       <c r="C4" s="2">
-        <v>0.2152</v>
+        <v>0.21516399999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -389,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ED18EB-C0AA-4C4A-AD24-3AA013855D89}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A13"/>
+    <sheetView zoomScale="173" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -404,135 +404,135 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>253</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.21759999999999999</v>
+      <c r="C2" s="2">
+        <v>0.21757299999999999</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1">
         <v>249</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.21829999999999999</v>
+      <c r="C3" s="2">
+        <v>0.21831</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>257</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.22020000000000001</v>
+      <c r="C4" s="2">
+        <v>0.220248</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>267</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.21990000000000001</v>
+      <c r="C5" s="2">
+        <v>0.21990699999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>369</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.22800000000000001</v>
+      <c r="C6" s="2">
+        <v>0.22801399999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>337</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.22570000000000001</v>
+      <c r="C7" s="2">
+        <v>0.225741</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1">
         <v>217</v>
       </c>
-      <c r="C8" s="3">
-        <v>0.21390000000000001</v>
+      <c r="C8" s="2">
+        <v>0.213864</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>219</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.21310000000000001</v>
+      <c r="C9" s="2">
+        <v>0.21313299999999999</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>235</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.21490000000000001</v>
+      <c r="C10" s="2">
+        <v>0.21493599999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>229</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.21510000000000001</v>
+      <c r="C11" s="2">
+        <v>0.21507000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>339</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.2273</v>
+      <c r="C12" s="2">
+        <v>0.227271</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>309</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.2238</v>
+      <c r="C13" s="2">
+        <v>0.22378999999999999</v>
       </c>
     </row>
   </sheetData>
